--- a/柳宇成/YouTube评估.xlsx
+++ b/柳宇成/YouTube评估.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Surface\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Github\Python-DM-Homework-W6-W10\柳宇成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18798BF-95C2-4E8F-AEAC-FD1C4860E141}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60AAA96-0814-450D-B86C-29AA78BFD5A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>一级指标权重</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -94,6 +94,14 @@
   </si>
   <si>
     <t>三级指标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级指标占二级指标权重</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级指标占一级指标权重</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -206,26 +214,45 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="7" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="7" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -514,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -525,9 +552,11 @@
     <col min="1" max="1" width="13.265625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="27.06640625" customWidth="1"/>
+    <col min="4" max="4" width="21.9296875" customWidth="1"/>
+    <col min="5" max="5" width="21.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,78 +566,122 @@
       <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D2" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="10"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D3" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="10"/>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D4" s="12"/>
+      <c r="E4" s="13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D5" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D6" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="10"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D7" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="10"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D8" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="10"/>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="15">
+        <v>0.2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="A2:A9"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E5:E8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
